--- a/po_analysis_by_asin/B083R7PHMX_po_data.xlsx
+++ b/po_analysis_by_asin/B083R7PHMX_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,55 +452,55 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45306</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45320</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45327</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45341</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45355</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45369</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45376</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>8</v>
@@ -508,47 +508,47 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45383</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45390</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45397</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45404</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45418</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45439</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>16</v>
@@ -556,41 +556,177 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45453</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45467</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45488</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45495</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45509</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B19" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B36" t="n">
         <v>32</v>
       </c>
     </row>
@@ -605,7 +741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,65 +763,129 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>144</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>176</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>48</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B17" t="n">
         <v>32</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B083R7PHMX_po_data.xlsx
+++ b/po_analysis_by_asin/B083R7PHMX_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -757,7 +758,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -887,6 +888,649 @@
       </c>
       <c r="B17" t="n">
         <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-6.460432739584765</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51.34684346700205</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-3.667287718968178</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.5459692662918</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5.218182096691579</v>
+      </c>
+      <c r="D4" t="n">
+        <v>54.27151408985287</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>24</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5.459644726952422</v>
+      </c>
+      <c r="D5" t="n">
+        <v>54.17643544655279</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>24</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-4.127175234943446</v>
+      </c>
+      <c r="D6" t="n">
+        <v>53.07257938119889</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>25</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.731261316804548</v>
+      </c>
+      <c r="D7" t="n">
+        <v>52.83007066936553</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>27</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.467285557032578</v>
+      </c>
+      <c r="D8" t="n">
+        <v>56.6297319335671</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>27</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.181863497090883</v>
+      </c>
+      <c r="D9" t="n">
+        <v>54.31149191478192</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>27</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.677095327327447</v>
+      </c>
+      <c r="D10" t="n">
+        <v>53.09463825964797</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>28</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.747187700678012</v>
+      </c>
+      <c r="D11" t="n">
+        <v>56.69212514857796</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>28</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-2.085351043283235</v>
+      </c>
+      <c r="D12" t="n">
+        <v>55.06894847702769</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>28</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1.66891587910068</v>
+      </c>
+      <c r="D13" t="n">
+        <v>55.81594426812709</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>28</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.472340095114577</v>
+      </c>
+      <c r="D14" t="n">
+        <v>59.61618076042627</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>29</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2205184410681386</v>
+      </c>
+      <c r="D15" t="n">
+        <v>57.32370012431991</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>30</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-2.309558585012649</v>
+      </c>
+      <c r="D16" t="n">
+        <v>57.36767637853074</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>30</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3822471338293155</v>
+      </c>
+      <c r="D17" t="n">
+        <v>59.67189897261738</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>30</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7167486869272605</v>
+      </c>
+      <c r="D18" t="n">
+        <v>60.18384134220688</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>31</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.076192369759479</v>
+      </c>
+      <c r="D19" t="n">
+        <v>61.43614131522775</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>32</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.940876887697329</v>
+      </c>
+      <c r="D20" t="n">
+        <v>62.27126441546511</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>32</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.064570879095774</v>
+      </c>
+      <c r="D21" t="n">
+        <v>61.23720391659192</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>32</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.28053451327204</v>
+      </c>
+      <c r="D22" t="n">
+        <v>62.04794421211482</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>33</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.169400813586539</v>
+      </c>
+      <c r="D23" t="n">
+        <v>62.55718720932161</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>33</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.597116801507329</v>
+      </c>
+      <c r="D24" t="n">
+        <v>63.28795030761481</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>34</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.827476103241962</v>
+      </c>
+      <c r="D25" t="n">
+        <v>64.33089860505574</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>34</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.702318037895006</v>
+      </c>
+      <c r="D26" t="n">
+        <v>61.69499364697128</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>34</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.590163513132005</v>
+      </c>
+      <c r="D27" t="n">
+        <v>62.28987040948833</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>34</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.646849999915115</v>
+      </c>
+      <c r="D28" t="n">
+        <v>64.91219238732511</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>34</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.048837024538701</v>
+      </c>
+      <c r="D29" t="n">
+        <v>62.78032951049638</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>35</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6.350879625245477</v>
+      </c>
+      <c r="D30" t="n">
+        <v>64.24384794720692</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>36</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.139935593338463</v>
+      </c>
+      <c r="D31" t="n">
+        <v>63.61837053933564</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>36</v>
+      </c>
+      <c r="C32" t="n">
+        <v>7.236986284805374</v>
+      </c>
+      <c r="D32" t="n">
+        <v>64.57449231987745</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>36</v>
+      </c>
+      <c r="C33" t="n">
+        <v>7.194931498955371</v>
+      </c>
+      <c r="D33" t="n">
+        <v>66.40387816440891</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>37</v>
+      </c>
+      <c r="C34" t="n">
+        <v>7.439165298200277</v>
+      </c>
+      <c r="D34" t="n">
+        <v>66.12551046761406</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>37</v>
+      </c>
+      <c r="C35" t="n">
+        <v>7.26076694163665</v>
+      </c>
+      <c r="D35" t="n">
+        <v>67.70998687578603</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>38</v>
+      </c>
+      <c r="C36" t="n">
+        <v>8.481812328479364</v>
+      </c>
+      <c r="D36" t="n">
+        <v>67.3122343243307</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>38</v>
+      </c>
+      <c r="C37" t="n">
+        <v>8.48764265454588</v>
+      </c>
+      <c r="D37" t="n">
+        <v>66.410922408438</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>38</v>
+      </c>
+      <c r="C38" t="n">
+        <v>9.963351585988491</v>
+      </c>
+      <c r="D38" t="n">
+        <v>68.01677402007128</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" t="n">
+        <v>10.81029044988301</v>
+      </c>
+      <c r="D39" t="n">
+        <v>68.0012300825985</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" t="n">
+        <v>9.872920776520003</v>
+      </c>
+      <c r="D40" t="n">
+        <v>69.92572843675265</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>9.595180168997226</v>
+      </c>
+      <c r="D41" t="n">
+        <v>66.62824903498026</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>39</v>
+      </c>
+      <c r="C42" t="n">
+        <v>9.714350174352917</v>
+      </c>
+      <c r="D42" t="n">
+        <v>69.29509137575678</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>39</v>
+      </c>
+      <c r="C43" t="n">
+        <v>9.516756758828645</v>
+      </c>
+      <c r="D43" t="n">
+        <v>68.66586923385098</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>40</v>
+      </c>
+      <c r="C44" t="n">
+        <v>8.828951994182782</v>
+      </c>
+      <c r="D44" t="n">
+        <v>69.82137573714354</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B083R7PHMX_po_data.xlsx
+++ b/po_analysis_by_asin/B083R7PHMX_po_data.xlsx
@@ -901,7 +901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -920,16 +920,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -938,12 +928,6 @@
       <c r="B2" t="n">
         <v>22</v>
       </c>
-      <c r="C2" t="n">
-        <v>-6.460432739584765</v>
-      </c>
-      <c r="D2" t="n">
-        <v>51.34684346700205</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -952,12 +936,6 @@
       <c r="B3" t="n">
         <v>23</v>
       </c>
-      <c r="C3" t="n">
-        <v>-3.667287718968178</v>
-      </c>
-      <c r="D3" t="n">
-        <v>56.5459692662918</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -966,12 +944,6 @@
       <c r="B4" t="n">
         <v>24</v>
       </c>
-      <c r="C4" t="n">
-        <v>-5.218182096691579</v>
-      </c>
-      <c r="D4" t="n">
-        <v>54.27151408985287</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -980,12 +952,6 @@
       <c r="B5" t="n">
         <v>24</v>
       </c>
-      <c r="C5" t="n">
-        <v>-5.459644726952422</v>
-      </c>
-      <c r="D5" t="n">
-        <v>54.17643544655279</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -994,12 +960,6 @@
       <c r="B6" t="n">
         <v>24</v>
       </c>
-      <c r="C6" t="n">
-        <v>-4.127175234943446</v>
-      </c>
-      <c r="D6" t="n">
-        <v>53.07257938119889</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1008,12 +968,6 @@
       <c r="B7" t="n">
         <v>25</v>
       </c>
-      <c r="C7" t="n">
-        <v>-1.731261316804548</v>
-      </c>
-      <c r="D7" t="n">
-        <v>52.83007066936553</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1022,12 +976,6 @@
       <c r="B8" t="n">
         <v>27</v>
       </c>
-      <c r="C8" t="n">
-        <v>-1.467285557032578</v>
-      </c>
-      <c r="D8" t="n">
-        <v>56.6297319335671</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1036,12 +984,6 @@
       <c r="B9" t="n">
         <v>27</v>
       </c>
-      <c r="C9" t="n">
-        <v>-1.181863497090883</v>
-      </c>
-      <c r="D9" t="n">
-        <v>54.31149191478192</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1050,12 +992,6 @@
       <c r="B10" t="n">
         <v>27</v>
       </c>
-      <c r="C10" t="n">
-        <v>-2.677095327327447</v>
-      </c>
-      <c r="D10" t="n">
-        <v>53.09463825964797</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1064,12 +1000,6 @@
       <c r="B11" t="n">
         <v>28</v>
       </c>
-      <c r="C11" t="n">
-        <v>-1.747187700678012</v>
-      </c>
-      <c r="D11" t="n">
-        <v>56.69212514857796</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1078,12 +1008,6 @@
       <c r="B12" t="n">
         <v>28</v>
       </c>
-      <c r="C12" t="n">
-        <v>-2.085351043283235</v>
-      </c>
-      <c r="D12" t="n">
-        <v>55.06894847702769</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1092,12 +1016,6 @@
       <c r="B13" t="n">
         <v>28</v>
       </c>
-      <c r="C13" t="n">
-        <v>-1.66891587910068</v>
-      </c>
-      <c r="D13" t="n">
-        <v>55.81594426812709</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1106,12 +1024,6 @@
       <c r="B14" t="n">
         <v>28</v>
       </c>
-      <c r="C14" t="n">
-        <v>1.472340095114577</v>
-      </c>
-      <c r="D14" t="n">
-        <v>59.61618076042627</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1120,12 +1032,6 @@
       <c r="B15" t="n">
         <v>29</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.2205184410681386</v>
-      </c>
-      <c r="D15" t="n">
-        <v>57.32370012431991</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1134,12 +1040,6 @@
       <c r="B16" t="n">
         <v>30</v>
       </c>
-      <c r="C16" t="n">
-        <v>-2.309558585012649</v>
-      </c>
-      <c r="D16" t="n">
-        <v>57.36767637853074</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1148,12 +1048,6 @@
       <c r="B17" t="n">
         <v>30</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.3822471338293155</v>
-      </c>
-      <c r="D17" t="n">
-        <v>59.67189897261738</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1162,12 +1056,6 @@
       <c r="B18" t="n">
         <v>30</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.7167486869272605</v>
-      </c>
-      <c r="D18" t="n">
-        <v>60.18384134220688</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1176,12 +1064,6 @@
       <c r="B19" t="n">
         <v>31</v>
       </c>
-      <c r="C19" t="n">
-        <v>3.076192369759479</v>
-      </c>
-      <c r="D19" t="n">
-        <v>61.43614131522775</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1190,12 +1072,6 @@
       <c r="B20" t="n">
         <v>32</v>
       </c>
-      <c r="C20" t="n">
-        <v>4.940876887697329</v>
-      </c>
-      <c r="D20" t="n">
-        <v>62.27126441546511</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1204,12 +1080,6 @@
       <c r="B21" t="n">
         <v>32</v>
       </c>
-      <c r="C21" t="n">
-        <v>3.064570879095774</v>
-      </c>
-      <c r="D21" t="n">
-        <v>61.23720391659192</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1218,12 +1088,6 @@
       <c r="B22" t="n">
         <v>32</v>
       </c>
-      <c r="C22" t="n">
-        <v>2.28053451327204</v>
-      </c>
-      <c r="D22" t="n">
-        <v>62.04794421211482</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1232,12 +1096,6 @@
       <c r="B23" t="n">
         <v>33</v>
       </c>
-      <c r="C23" t="n">
-        <v>5.169400813586539</v>
-      </c>
-      <c r="D23" t="n">
-        <v>62.55718720932161</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1246,12 +1104,6 @@
       <c r="B24" t="n">
         <v>33</v>
       </c>
-      <c r="C24" t="n">
-        <v>3.597116801507329</v>
-      </c>
-      <c r="D24" t="n">
-        <v>63.28795030761481</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1260,12 +1112,6 @@
       <c r="B25" t="n">
         <v>34</v>
       </c>
-      <c r="C25" t="n">
-        <v>4.827476103241962</v>
-      </c>
-      <c r="D25" t="n">
-        <v>64.33089860505574</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1274,12 +1120,6 @@
       <c r="B26" t="n">
         <v>34</v>
       </c>
-      <c r="C26" t="n">
-        <v>3.702318037895006</v>
-      </c>
-      <c r="D26" t="n">
-        <v>61.69499364697128</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1288,12 +1128,6 @@
       <c r="B27" t="n">
         <v>34</v>
       </c>
-      <c r="C27" t="n">
-        <v>5.590163513132005</v>
-      </c>
-      <c r="D27" t="n">
-        <v>62.28987040948833</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1302,12 +1136,6 @@
       <c r="B28" t="n">
         <v>34</v>
       </c>
-      <c r="C28" t="n">
-        <v>4.646849999915115</v>
-      </c>
-      <c r="D28" t="n">
-        <v>64.91219238732511</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1316,12 +1144,6 @@
       <c r="B29" t="n">
         <v>34</v>
       </c>
-      <c r="C29" t="n">
-        <v>4.048837024538701</v>
-      </c>
-      <c r="D29" t="n">
-        <v>62.78032951049638</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1330,12 +1152,6 @@
       <c r="B30" t="n">
         <v>35</v>
       </c>
-      <c r="C30" t="n">
-        <v>6.350879625245477</v>
-      </c>
-      <c r="D30" t="n">
-        <v>64.24384794720692</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1344,12 +1160,6 @@
       <c r="B31" t="n">
         <v>36</v>
       </c>
-      <c r="C31" t="n">
-        <v>3.139935593338463</v>
-      </c>
-      <c r="D31" t="n">
-        <v>63.61837053933564</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1358,12 +1168,6 @@
       <c r="B32" t="n">
         <v>36</v>
       </c>
-      <c r="C32" t="n">
-        <v>7.236986284805374</v>
-      </c>
-      <c r="D32" t="n">
-        <v>64.57449231987745</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1372,12 +1176,6 @@
       <c r="B33" t="n">
         <v>36</v>
       </c>
-      <c r="C33" t="n">
-        <v>7.194931498955371</v>
-      </c>
-      <c r="D33" t="n">
-        <v>66.40387816440891</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1386,12 +1184,6 @@
       <c r="B34" t="n">
         <v>37</v>
       </c>
-      <c r="C34" t="n">
-        <v>7.439165298200277</v>
-      </c>
-      <c r="D34" t="n">
-        <v>66.12551046761406</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1400,12 +1192,6 @@
       <c r="B35" t="n">
         <v>37</v>
       </c>
-      <c r="C35" t="n">
-        <v>7.26076694163665</v>
-      </c>
-      <c r="D35" t="n">
-        <v>67.70998687578603</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1414,12 +1200,6 @@
       <c r="B36" t="n">
         <v>38</v>
       </c>
-      <c r="C36" t="n">
-        <v>8.481812328479364</v>
-      </c>
-      <c r="D36" t="n">
-        <v>67.3122343243307</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1428,12 +1208,6 @@
       <c r="B37" t="n">
         <v>38</v>
       </c>
-      <c r="C37" t="n">
-        <v>8.48764265454588</v>
-      </c>
-      <c r="D37" t="n">
-        <v>66.410922408438</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1442,12 +1216,6 @@
       <c r="B38" t="n">
         <v>38</v>
       </c>
-      <c r="C38" t="n">
-        <v>9.963351585988491</v>
-      </c>
-      <c r="D38" t="n">
-        <v>68.01677402007128</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1456,12 +1224,6 @@
       <c r="B39" t="n">
         <v>38</v>
       </c>
-      <c r="C39" t="n">
-        <v>10.81029044988301</v>
-      </c>
-      <c r="D39" t="n">
-        <v>68.0012300825985</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1470,12 +1232,6 @@
       <c r="B40" t="n">
         <v>39</v>
       </c>
-      <c r="C40" t="n">
-        <v>9.872920776520003</v>
-      </c>
-      <c r="D40" t="n">
-        <v>69.92572843675265</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1484,12 +1240,6 @@
       <c r="B41" t="n">
         <v>39</v>
       </c>
-      <c r="C41" t="n">
-        <v>9.595180168997226</v>
-      </c>
-      <c r="D41" t="n">
-        <v>66.62824903498026</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1498,12 +1248,6 @@
       <c r="B42" t="n">
         <v>39</v>
       </c>
-      <c r="C42" t="n">
-        <v>9.714350174352917</v>
-      </c>
-      <c r="D42" t="n">
-        <v>69.29509137575678</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1512,12 +1256,6 @@
       <c r="B43" t="n">
         <v>39</v>
       </c>
-      <c r="C43" t="n">
-        <v>9.516756758828645</v>
-      </c>
-      <c r="D43" t="n">
-        <v>68.66586923385098</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1525,12 +1263,6 @@
       </c>
       <c r="B44" t="n">
         <v>40</v>
-      </c>
-      <c r="C44" t="n">
-        <v>8.828951994182782</v>
-      </c>
-      <c r="D44" t="n">
-        <v>69.82137573714354</v>
       </c>
     </row>
   </sheetData>
